--- a/FromFile.xlsx
+++ b/FromFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlgoSpring\python\Union_Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E903DC-3B05-49C0-A81C-9074A32487AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF07BD33-27F2-42AC-B524-1A61B7CACC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="647">
   <si>
     <t>Row Labels</t>
   </si>
@@ -1956,7 +1956,19 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Dependent</t>
+    <t>Spouce</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>Lira</t>
+  </si>
+  <si>
+    <t>Nimesh</t>
+  </si>
+  <si>
+    <t>HSB</t>
   </si>
 </sst>
 </file>
@@ -2526,8 +2538,8 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,10 +2613,10 @@
         <v>210</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>627</v>
@@ -2636,10 +2648,10 @@
         <v>210</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>627</v>
@@ -2662,7 +2674,7 @@
         <v>29562</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -2671,7 +2683,7 @@
         <v>251</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>638</v>
@@ -2697,7 +2709,7 @@
         <v>29563</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -2709,7 +2721,7 @@
         <v>625</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>627</v>
@@ -2732,7 +2744,7 @@
         <v>29564</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -2741,7 +2753,7 @@
         <v>92</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>638</v>
@@ -2770,16 +2782,16 @@
         <v>624</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>94</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>627</v>
@@ -2805,7 +2817,7 @@
         <v>624</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>97</v>
@@ -2814,7 +2826,7 @@
         <v>625</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>627</v>
@@ -2840,7 +2852,7 @@
         <v>641</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>99</v>
@@ -2849,7 +2861,7 @@
         <v>642</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>627</v>
@@ -2872,10 +2884,10 @@
         <v>29568</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>471</v>
@@ -2907,19 +2919,19 @@
         <v>29569</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>247</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>627</v>
@@ -2945,7 +2957,7 @@
         <v>641</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>99</v>
@@ -2963,68 +2975,188 @@
         <v>4000</v>
       </c>
       <c r="J12" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="34"/>
-      <c r="K13" s="2"/>
+      <c r="A13" t="s">
+        <v>644</v>
+      </c>
+      <c r="B13" s="39">
+        <v>29571</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="I13" s="34">
+        <v>4001</v>
+      </c>
+      <c r="J13" t="s">
+        <v>639</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="34"/>
-      <c r="K14" s="2"/>
+      <c r="A14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B14" s="39">
+        <v>29572</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="I14" s="34">
+        <v>4002</v>
+      </c>
+      <c r="J14" t="s">
+        <v>639</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="34"/>
-      <c r="K15" s="2"/>
+      <c r="A15" t="s">
+        <v>637</v>
+      </c>
+      <c r="B15" s="39">
+        <v>29573</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="I15" s="34">
+        <v>4003</v>
+      </c>
+      <c r="J15" t="s">
+        <v>639</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="34"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="34"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>645</v>
+      </c>
+      <c r="B16" s="39">
+        <v>29574</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="I16" s="34">
+        <v>4004</v>
+      </c>
+      <c r="J16" t="s">
+        <v>639</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>637</v>
+      </c>
+      <c r="B17" s="39">
+        <v>29575</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="I17" s="34">
+        <v>4005</v>
+      </c>
+      <c r="J17" t="s">
+        <v>639</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3035,7 +3167,7 @@
       <c r="I18" s="34"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3046,7 +3178,7 @@
       <c r="I19" s="34"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3057,7 +3189,7 @@
       <c r="I20" s="34"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3068,7 +3200,7 @@
       <c r="I21" s="34"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3079,7 +3211,7 @@
       <c r="I22" s="34"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3089,7 +3221,7 @@
       <c r="I23" s="34"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="33"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3100,7 +3232,7 @@
       <c r="I24" s="34"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3111,7 +3243,7 @@
       <c r="I25" s="34"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3122,7 +3254,7 @@
       <c r="I26" s="34"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3133,7 +3265,7 @@
       <c r="I27" s="34"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3144,7 +3276,7 @@
       <c r="I28" s="34"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3155,7 +3287,7 @@
       <c r="I29" s="34"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3166,7 +3298,7 @@
       <c r="I30" s="34"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3177,7 +3309,7 @@
       <c r="I31" s="34"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
